--- a/data/real_climate_data.xlsx
+++ b/data/real_climate_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\UFSC\Publications\Contributions\paper_maize_huanghuaihai\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28071437-B09D-49E1-B44C-6C2234F50D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBB34D8-4E1B-4A9D-8581-D6DFC4C4F0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shenzhou" sheetId="4" r:id="rId1"/>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C0B09C-4C82-47B1-BB64-FE86B88AE869}">
   <dimension ref="A1:H234"/>
   <sheetViews>
-    <sheetView topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="A234" sqref="A234"/>
+    <sheetView topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="G118" sqref="G118:G234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6533,6 +6533,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6540,8 +6541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1048573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="C221" sqref="C221"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -16326,8 +16327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1048569"/>
   <sheetViews>
-    <sheetView topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="C229" sqref="C229"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
